--- a/天然气/eta/美国天然气HH连1合约Non-Trend_F0.1_月度数据.xlsx
+++ b/天然气/eta/美国天然气HH连1合约Non-Trend_F0.1_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-0.07779999999999999</v>
+        <v>-0.0343</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0129</v>
+        <v>0.0269</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1291</v>
+        <v>-0.1016</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2671</v>
+        <v>-0.2673</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.286</v>
+        <v>-0.2714</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4027</v>
+        <v>-0.4034</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3754</v>
+        <v>-0.3736</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008</v>
+        <v>0.0065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0133</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3436</v>
+        <v>0.3413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2826</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1654</v>
+        <v>0.1623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1555</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1392</v>
+        <v>0.1351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1454</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="10">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8607</v>
+        <v>0.8549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8037</v>
+        <v>0.7927</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4848</v>
+        <v>0.4819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4918</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="12">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5449000000000001</v>
+        <v>0.5441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5368000000000001</v>
+        <v>0.5229</v>
       </c>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3322</v>
+        <v>0.3316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3319</v>
+        <v>0.3228</v>
       </c>
     </row>
     <row r="14">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0192</v>
+        <v>0.0187</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0212</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="15">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2521</v>
+        <v>-0.2525</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2309</v>
+        <v>-0.2237</v>
       </c>
     </row>
     <row r="16">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2694</v>
+        <v>-0.2697</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.269</v>
+        <v>-0.2749</v>
       </c>
     </row>
     <row r="17">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4473</v>
+        <v>-0.4474</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4127</v>
+        <v>-0.4232</v>
       </c>
     </row>
     <row r="18">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2038</v>
+        <v>-0.2039</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2092</v>
+        <v>-0.1912</v>
       </c>
     </row>
     <row r="19">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4653</v>
+        <v>0.4652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4565</v>
+        <v>0.4139</v>
       </c>
     </row>
     <row r="20">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0958</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5488</v>
+        <v>-0.5489000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5128</v>
+        <v>-0.5022</v>
       </c>
     </row>
     <row r="22">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.6325</v>
+        <v>-0.6326000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6052</v>
+        <v>-0.6106</v>
       </c>
     </row>
     <row r="23">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.6267</v>
+        <v>-0.6268</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5742</v>
+        <v>-0.5702</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2523</v>
+        <v>0.2522</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="25">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5478</v>
+        <v>0.5477</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0163</v>
+        <v>-0.0164</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.06619999999999999</v>
+        <v>-0.0663</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.4018</v>
+        <v>-0.402</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.917</v>
+        <v>-0.9175</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.3753</v>
+        <v>-1.3759</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.5155</v>
+        <v>-1.5161</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.8324</v>
+        <v>-1.8329</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.1534</v>
+        <v>-1.1538</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
